--- a/medicine/Mort/Babalu_Aye/Babalu_Aye.xlsx
+++ b/medicine/Mort/Babalu_Aye/Babalu_Aye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Babalu Aye (ou Babalú Ayé), appelé également au Brésil Obaluaiê, ou Omolu ou Omoru, est, dans les religions afro-américaines d'origine yoruba, l'orisha des maladies et de la mort. Il est plus spécifiquement un Orisha de la terre et de la variole. Il se nomme Sakpata au Bénin. Il est le fils de Iemanja, l'orisha-mère. 
 </t>
